--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-868272.1809325994</v>
+        <v>-870870.0125052352</v>
       </c>
     </row>
     <row r="7">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>73.26347041949455</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>182.9377227717321</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>119.8321448036803</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>11.18264333023655</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>252.4010106926942</v>
       </c>
       <c r="H5" t="n">
-        <v>215.8536526006925</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>139.9012973798591</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>139.5271899898256</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>128.6794467600591</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>172.1170678881927</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>88.00901217724659</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>72.57520509258997</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>253.2918698186444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>83.06560892427785</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238318</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>184.6141907640395</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>123.797182079703</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>174.3251984254137</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>103.1686991936197</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>96.02642072444083</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261733</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652669</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3433,16 +3433,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,16 +3670,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308924</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1990.953909778728</v>
+        <v>1329.838061543121</v>
       </c>
       <c r="C2" t="n">
-        <v>1621.991392838317</v>
+        <v>960.8755446027096</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>602.6098459959592</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="Y2" t="n">
-        <v>2377.55374984285</v>
+        <v>1716.437901607243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>114.5432626034346</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>299.2648838844846</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>593.9684409159563</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>957.2304598751764</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.841548125043</v>
+        <v>789.6534264926422</v>
       </c>
       <c r="C4" t="n">
-        <v>644.9053651971361</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="D4" t="n">
-        <v>494.7887257848004</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1515.403549565729</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1515.403549565729</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485143</v>
+        <v>1515.403549565729</v>
       </c>
       <c r="V4" t="n">
-        <v>813.841548125043</v>
+        <v>1260.719061359842</v>
       </c>
       <c r="W4" t="n">
-        <v>813.841548125043</v>
+        <v>971.3018913228819</v>
       </c>
       <c r="X4" t="n">
-        <v>813.841548125043</v>
+        <v>971.3018913228819</v>
       </c>
       <c r="Y4" t="n">
-        <v>813.841548125043</v>
+        <v>971.3018913228819</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1879.82957821044</v>
+        <v>2185.045504370168</v>
       </c>
       <c r="C5" t="n">
-        <v>1510.867061270028</v>
+        <v>1816.082987429756</v>
       </c>
       <c r="D5" t="n">
-        <v>1152.601362663278</v>
+        <v>1457.817288823006</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.601362663278</v>
+        <v>1072.029036224761</v>
       </c>
       <c r="F5" t="n">
-        <v>741.6154578736703</v>
+        <v>661.0431314351538</v>
       </c>
       <c r="G5" t="n">
-        <v>326.5430077186667</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250373</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X5" t="n">
-        <v>2656.568750250373</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="Y5" t="n">
-        <v>2266.429418274562</v>
+        <v>2571.64534443429</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>697.9541770656748</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="C7" t="n">
-        <v>529.0179941377679</v>
+        <v>505.4784049721907</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>355.3617655598549</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>207.4486719774618</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>207.4486719774618</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>207.4486719774618</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.67533979849</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.67533979849</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W7" t="n">
-        <v>1067.25816976153</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X7" t="n">
-        <v>839.2686188635123</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y7" t="n">
-        <v>839.2686188635123</v>
+        <v>674.4145879000976</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
         <v>1232.150970528558</v>
@@ -4799,10 +4799,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810562</v>
@@ -4811,19 +4811,19 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267229</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2866.097597267229</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X8" t="n">
-        <v>2736.118358115654</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>847.3980557622424</v>
+        <v>775.9977502341333</v>
       </c>
       <c r="C10" t="n">
-        <v>678.4618728343355</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219998</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1764.155802873708</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1764.155802873708</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040962</v>
+        <v>1475.052935999351</v>
       </c>
       <c r="V10" t="n">
-        <v>1446.505797040962</v>
+        <v>1475.052935999351</v>
       </c>
       <c r="W10" t="n">
-        <v>1157.088627004001</v>
+        <v>1185.63576596239</v>
       </c>
       <c r="X10" t="n">
-        <v>1157.088627004001</v>
+        <v>957.646215064373</v>
       </c>
       <c r="Y10" t="n">
-        <v>936.2960478604713</v>
+        <v>957.646215064373</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5291,25 +5291,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138372</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703071</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2010.58356491783</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="20">
@@ -5735,34 +5735,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5826,13 +5826,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5841,7 +5841,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1695.154629184233</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1405.737459147272</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,37 +6002,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,13 +6063,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6215,58 +6215,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>198.0274703142544</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,52 +6686,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319332</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580123</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345485</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384029</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,43 +7093,43 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319332</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150032</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,28 +7330,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7570,7 +7570,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311324</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,25 +7825,25 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
         <v>1280.33868158239</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.9556134883062413</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,22 +8064,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>21.18099370047429</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>308.6668996527673</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>211.8399498933283</v>
+        <v>261.8132523272679</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>203.3002158843215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.513749910243533e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>120.3791545843342</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>65.5498640939345</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>32.79125956324873</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.22910392194156</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>77.81244489841433</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>62.35543909864913</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>71.22040037418701</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-4.709566198145672e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-7.247535904753022e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-9.805489753489383e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-8.952838470577262e-13</v>
+        <v>-7.247535904753022e-13</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1016649.682003289</v>
+        <v>1016649.68200329</v>
       </c>
     </row>
     <row r="3">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186177.3549837538</v>
+        <v>186177.3549837539</v>
       </c>
       <c r="C2" t="n">
         <v>225786.4867126779</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="F2" t="n">
         <v>221965.3149147517</v>
@@ -26329,7 +26329,7 @@
         <v>221965.3149147517</v>
       </c>
       <c r="H2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
         <v>221965.3149147517</v>
@@ -26344,10 +26344,10 @@
         <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
         <v>225786.4867126781</v>
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121055</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>49110.09270605445</v>
@@ -26396,7 +26396,7 @@
         <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55720.99847008419</v>
+        <v>55720.99847008436</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312023</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312014</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26430,34 +26430,34 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768901</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768868</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768879</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486235</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486238</v>
       </c>
       <c r="N4" t="n">
         <v>17938.00358486237</v>
       </c>
       <c r="O4" t="n">
+        <v>17938.00358486238</v>
+      </c>
+      <c r="P4" t="n">
         <v>17938.00358486237</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17938.00358486235</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1077233.199502095</v>
+        <v>-1077593.282517812</v>
       </c>
       <c r="C6" t="n">
-        <v>-174720.3745539411</v>
+        <v>-174720.3745539414</v>
       </c>
       <c r="D6" t="n">
-        <v>28718.36705816443</v>
+        <v>28718.36705816453</v>
       </c>
       <c r="E6" t="n">
-        <v>-214516.82103828</v>
+        <v>-214551.5589637152</v>
       </c>
       <c r="F6" t="n">
-        <v>110895.6407690757</v>
+        <v>110860.90284364</v>
       </c>
       <c r="G6" t="n">
-        <v>110895.6407690757</v>
+        <v>110860.90284364</v>
       </c>
       <c r="H6" t="n">
-        <v>110895.6407690756</v>
+        <v>110860.90284364</v>
       </c>
       <c r="I6" t="n">
-        <v>110895.6407690757</v>
+        <v>110860.90284364</v>
       </c>
       <c r="J6" t="n">
-        <v>-56709.53704090678</v>
+        <v>-56744.27496634246</v>
       </c>
       <c r="K6" t="n">
-        <v>61785.54806302127</v>
+        <v>61750.81013758559</v>
       </c>
       <c r="L6" t="n">
-        <v>85256.64928026857</v>
+        <v>85256.64928026855</v>
       </c>
       <c r="M6" t="n">
-        <v>19629.33933838838</v>
+        <v>19629.33933838854</v>
       </c>
       <c r="N6" t="n">
-        <v>104684.3672739002</v>
+        <v>104684.3672739003</v>
       </c>
       <c r="O6" t="n">
         <v>104684.3672739003</v>
       </c>
       <c r="P6" t="n">
-        <v>104684.3672739004</v>
+        <v>104684.3672739003</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757586</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>190.8166233022538</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022538</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022538</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>137.4010188240848</v>
+        <v>87.42771639014506</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>74.83031555805715</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>240.9549999935915</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>158.5207149607592</v>
       </c>
       <c r="H5" t="n">
-        <v>78.75411178662799</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.93068280207817</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>5.227824924495167</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>241.05165391841</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>214.1208707678609</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.82296800469071</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>117.1938202388519</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,19 +32552,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>63.93583437922369</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>412.3780932933483</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,19 +35729,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,19 +37388,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
